--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_010.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_010.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
+    <t>(295001AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment/auxiliary building isolation</t>
+  </si>
+  <si>
+    <t>(295037EK2.25) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Rod worth minimizer</t>
+  </si>
+  <si>
+    <t>(700000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
     <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
   </si>
   <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EK2.03) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
-  </si>
-  <si>
-    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295016AA1.13) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Shutdown cooling system (RHR shutdown cooling mode)</t>
-  </si>
-  <si>
-    <t>(295031EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Automatic depressurization system actuation</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AK2.01) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Motors</t>
-  </si>
-  <si>
-    <t>(295037EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295025EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) RFCS</t>
-  </si>
-  <si>
-    <t>(295019AK2.10) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EK2.13) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool spray</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(295021AA1.05) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor recirculation</t>
-  </si>
-  <si>
-    <t>(295030EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Pump NPSH</t>
-  </si>
-  <si>
-    <t>(295005AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Realignment of electrical distribution</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295002AA2.03) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Generator output</t>
-  </si>
-  <si>
-    <t>(295034EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295013AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Surveillance testing</t>
-  </si>
-  <si>
-    <t>(295008AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) PCIS/NSSSS initiation</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295036EK2.04) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Area/room/sump level indicators</t>
-  </si>
-  <si>
-    <t>(209002K4.03) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of pump overheating</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(239002A2.03) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open SRV</t>
-  </si>
-  <si>
-    <t>(223002K3.28) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment nitrogen inerting system</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215003K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Changing mode switch position</t>
-  </si>
-  <si>
-    <t>(262002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(510000A3.01) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts</t>
-  </si>
-  <si>
-    <t>(215005A4.05) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
-  </si>
-  <si>
-    <t>(300000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(205000K4.05) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(217000K2.03) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) RCIC flow controller</t>
-  </si>
-  <si>
-    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
-  </si>
-  <si>
-    <t>(203000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment</t>
-  </si>
-  <si>
-    <t>(261000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Heat removal mechanisms</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291001K1.12) VALVES (CFR: 41.3) Reason for using a globe valve versus a gate valve for throttling</t>
-  </si>
-  <si>
-    <t>(262001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Generator trip</t>
-  </si>
-  <si>
-    <t>(259002K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generator(s): FWCI</t>
-  </si>
-  <si>
-    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+    <t>(295021AK2.02) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup</t>
+  </si>
+  <si>
+    <t>(600000AA1.08) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Firefighting equipment used on each class of fire</t>
+  </si>
+  <si>
+    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Refueling interlocks</t>
+  </si>
+  <si>
+    <t>(295016AK2.05) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295031EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295002AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Main steam isolation valve closure</t>
+  </si>
+  <si>
+    <t>(295008AK2.09) Knowledge of the relationship between the (APE 8) HIGH REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system (ability to drain)</t>
+  </si>
+  <si>
+    <t>(295035EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Blowout panels</t>
+  </si>
+  <si>
+    <t>(295036EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Maximum safe operating limit</t>
+  </si>
+  <si>
+    <t>(295013AA2.03) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Open/leaking Safety relief valve</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(211000A4.08) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System initiation</t>
   </si>
   <si>
-    <t>(215004A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SRMS count rate and period</t>
-  </si>
-  <si>
-    <t>(209002K4.12) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic transfer of HPCS pump suction</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
-  </si>
-  <si>
-    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
-  </si>
-  <si>
-    <t>(223002K3.13) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(290002K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety relief valve system</t>
-  </si>
-  <si>
-    <t>(201005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(288000K4.04) Knowledge of (SF9 PVS) PLANT VENTILATION SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Smoke removal</t>
-  </si>
-  <si>
-    <t>(510001K2.02) (SF8 CWS*) CIRCULATING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System valves</t>
-  </si>
-  <si>
-    <t>(204000A2.03) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Flow control valve failure</t>
-  </si>
-  <si>
-    <t>(290003K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room radioactivity</t>
-  </si>
-  <si>
-    <t>(201001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.5-7 / 41.10 / 45.1-6 / 45.12-13) Pump operation</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(271000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.7) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(259001K1.23) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Hydrogen water chemistry system</t>
-  </si>
-  <si>
-    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+    <t>(261000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Primary containment isolation system/nuclear steam supply shutoff system</t>
+  </si>
+  <si>
+    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
+  </si>
+  <si>
+    <t>(217000K4.11) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Resetting system isolations</t>
+  </si>
+  <si>
+    <t>(215003A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) IRM back panel switches</t>
+  </si>
+  <si>
+    <t>(209002K3.04) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(215005A2.02) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
+  </si>
+  <si>
+    <t>(262001A3.04) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Load sequencing</t>
+  </si>
+  <si>
+    <t>(239002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
+  </si>
+  <si>
+    <t>(223002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Secondary containment integrity</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(212000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
+  </si>
+  <si>
+    <t>(263000K4.04) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Battery charging methods</t>
+  </si>
+  <si>
+    <t>(209001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(400000K3.08) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Residual heat removal system</t>
+  </si>
+  <si>
+    <t>(203000A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate net positive suction head</t>
+  </si>
+  <si>
+    <t>(259002A3.07) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) FWRV lockup</t>
+  </si>
+  <si>
+    <t>(218000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RHR/LPCI system</t>
+  </si>
+  <si>
+    <t>(300000K5.14) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Air leaks</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291004K1.17) PUMPS (CFR: 41.3) (CENTRIFUGAL) Using a centrifugal pump characteristic curve and a system characteristic curve, illustrate how the system operating point changes due to system changes</t>
+  </si>
+  <si>
+    <t>(211000A4.06) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) RWCU system isolation</t>
+  </si>
+  <si>
+    <t>(261000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
+  </si>
+  <si>
+    <t>(217000K4.14) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Control oil to turbine speed controls</t>
+  </si>
+  <si>
+    <t>(219000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.5 / 45.3) System lineup</t>
+  </si>
+  <si>
+    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(245000A4.12) Ability to manually operate and/or monitor the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS in the control room: (CFR: 41.7 / 45.5 to 45.8) Voltage regulator</t>
+  </si>
+  <si>
+    <t>(215001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.7 / 45.7) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(201001K2.07) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Breaker control</t>
+  </si>
+  <si>
+    <t>(290001K4.02) Knowledge of (SF5 SC) SECONDARY CONTAINMENT design features and/or interlocks that provide for the following: (CFR: 41.7) Protection against overpressurization</t>
+  </si>
+  <si>
+    <t>(256000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.5 / 45.5) Hotwell level</t>
+  </si>
+  <si>
+    <t>(510001K3.08) Knowledge of the effect that a loss or malfunction of the (SF8 CWS*) CIRCULATING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Feedwater system</t>
+  </si>
+  <si>
+    <t>(202001A2.17) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of seal cooling water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(233000A3.02) Ability to monitor automatic operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.7 / 45.7) Pump trip(s) </t>
+  </si>
+  <si>
+    <t>(201005K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and the following systems: (CFR: 41.2 to 41.7 / 45.8) Intermediate range monitor system</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
-  </si>
-  <si>
-    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
-  </si>
-  <si>
-    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.01) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe three mechanisms of heat transfer </t>
-  </si>
-  <si>
-    <t>(293009K1.31) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Describe pellet-clad interaction</t>
-  </si>
-  <si>
-    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(216000A2.08) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Elevated containment temperature</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(245000A2.03) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded/ loss of condenser vacuum</t>
-  </si>
-  <si>
-    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(293008K1.04) THERMAL HYDRAULICS (CFR: 41.14) (BOILING HEAT TRANSFER) Describe means by which boiling improves convection heat transfer</t>
+  </si>
+  <si>
+    <t>(293006K1.13) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the importance of proper system venting for pump operations</t>
+  </si>
+  <si>
+    <t>(293007K1.10) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define core thermal power</t>
+  </si>
+  <si>
+    <t>(295001AA2.11) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual loop flow(s)</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA2.05) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AA2.03) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell humidity</t>
+  </si>
+  <si>
+    <t>(215003A2.08) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Improper overlap</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(215005A2.04) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SCRAM trip signals</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(239002A2.01) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open vacuum breakers</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(226001A2.17) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High containment/drywell temperature</t>
+  </si>
+  <si>
+    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K1</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
     <t>295002</t>
   </si>
   <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295008</t>
+    <t>295032</t>
   </si>
   <si>
     <t>295012</t>
   </si>
   <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>216000</t>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>226001</t>
   </si>
   <si>
     <t>239001</t>
-  </si>
-  <si>
-    <t>245000</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1514,7 +1514,7 @@
         <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1718,7 +1718,7 @@
         <v>3.9</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1820,7 +1820,7 @@
         <v>3.4</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
         <v>106</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D79" t="s">
         <v>106</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
         <v>106</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
         <v>106</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="D86" t="s">
         <v>106</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D87" t="s">
         <v>106</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
         <v>106</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D91" t="s">
         <v>106</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D93" t="s">
         <v>106</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
